--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2661698.804049266</v>
+        <v>2659446.724338057</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658581</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6821624261907</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>258.2317318494241</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>148.4399041872979</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316074</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>75.4123130728491</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>223.9404705979978</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091492</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877059963</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>58.24570521548608</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1340.24392931281</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>954.4556767145652</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>526.6580321322147</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>357.7218492043078</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>207.605209791972</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040963</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1157.088627004002</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>929.0990761059845</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.3064969624544</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3065.37585597738</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3065.37585597738</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2734.312968633809</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.544313363695</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270434</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,16 +5531,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,19 +6601,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300683</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>376.4492432300683</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7157,25 +7157,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194309</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814952</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>107.2784330767828</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520054</v>
-      </c>
       <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179354</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26451,7 +26451,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.337420704</v>
+        <v>-870199.3374207041</v>
       </c>
       <c r="C6" t="n">
-        <v>458545.4083068884</v>
+        <v>458545.4083068887</v>
       </c>
       <c r="D6" t="n">
-        <v>458545.4083068889</v>
+        <v>458545.4083068885</v>
       </c>
       <c r="E6" t="n">
-        <v>208015.2558689488</v>
+        <v>207980.5179435135</v>
       </c>
       <c r="F6" t="n">
-        <v>533427.7176763045</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="G6" t="n">
-        <v>533427.7176763047</v>
+        <v>533392.9797508685</v>
       </c>
       <c r="H6" t="n">
-        <v>533427.7176763045</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="I6" t="n">
-        <v>533427.7176763045</v>
+        <v>533392.9797508683</v>
       </c>
       <c r="J6" t="n">
-        <v>315896.5152790271</v>
+        <v>315861.777353591</v>
       </c>
       <c r="K6" t="n">
-        <v>533427.7176763042</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="L6" t="n">
-        <v>533427.7176763043</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="M6" t="n">
-        <v>448372.6897407926</v>
+        <v>448337.9518153568</v>
       </c>
       <c r="N6" t="n">
-        <v>533427.7176763046</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="O6" t="n">
-        <v>533427.7176763042</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="P6" t="n">
-        <v>533427.7176763043</v>
+        <v>533392.9797508686</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,25 +26790,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.4435131414761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.751800220378442</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.98010635618874</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>55.47806595232223</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244461</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>10.12388134767377</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>150.2973423161881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>130.7425710226852</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047089</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745949</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,13 +33652,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,16 +35492,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525766</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
